--- a/RawData/Unit_Data.xlsx
+++ b/RawData/Unit_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54B6E53-32F0-43BF-98EF-93377A23CD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427B29EC-9455-4033-9BB7-6FC4EC5D48E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="1620" windowWidth="20010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35250" yWindow="2310" windowWidth="20010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -56,9 +56,6 @@
     <t>힘이 쎈 부족원입니다.</t>
   </si>
   <si>
-    <t>전사 1.gif</t>
-  </si>
-  <si>
     <t>전사 2</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>멀리 쏘는 건 자신 있습니다.</t>
   </si>
   <si>
-    <t>궁수 1.gif</t>
-  </si>
-  <si>
     <t>궁수 2</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
   </si>
   <si>
     <t>20년 동안 모솔입니다.</t>
-  </si>
-  <si>
-    <t>마법사 1.gif</t>
   </si>
   <si>
     <t>마법사 2</t>
@@ -219,6 +210,79 @@
   </si>
   <si>
     <t>초보자3</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>tep</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>rue</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base0</t>
+  </si>
+  <si>
+    <t>Archer0</t>
+  </si>
+  <si>
+    <t>Archer0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human0</t>
   </si>
 </sst>
 </file>
@@ -267,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,6 +340,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,366 +850,484 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2">
         <v>101</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <v>20.5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <v>16500</v>
       </c>
-      <c r="G2" s="2">
+      <c r="I2" s="2">
         <v>210</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>102</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>20.5</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="2">
         <v>16500</v>
       </c>
-      <c r="G3" s="2">
+      <c r="I3" s="2">
         <v>210</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="L3" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>103</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>20.5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
         <v>16500</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
         <v>210</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="L4" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>201</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>27</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>17000</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>170</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>7</v>
+      <c r="K5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>202</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="G6" s="2">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>17000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>160</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2">
-        <v>17000</v>
-      </c>
-      <c r="G6" s="2">
-        <v>160</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>10</v>
+      <c r="L6" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>203</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2">
+        <v>31.6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>17000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>150</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2">
-        <v>31.6</v>
-      </c>
-      <c r="F7" s="2">
-        <v>17000</v>
-      </c>
-      <c r="G7" s="2">
-        <v>150</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>13</v>
+      <c r="L7" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>301</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>13.32</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="2">
         <v>16000</v>
       </c>
-      <c r="G8" s="2">
+      <c r="I8" s="2">
         <v>220</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>5</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
+      <c r="K8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>302</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2">
+        <v>16000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>210</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2">
-        <v>16000</v>
-      </c>
-      <c r="G9" s="2">
-        <v>210</v>
-      </c>
-      <c r="H9" s="2">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>19</v>
+      <c r="L9" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>303</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2">
+        <v>16000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>200</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2">
-        <v>16000</v>
-      </c>
-      <c r="G10" s="2">
-        <v>200</v>
-      </c>
-      <c r="H10" s="2">
-        <v>7</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>22</v>
+      <c r="L10" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>401</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2">
         <v>25.6</v>
       </c>
-      <c r="F11" s="2">
+      <c r="H11" s="2">
         <v>16700</v>
       </c>
-      <c r="G11" s="2">
+      <c r="I11" s="2">
         <v>270</v>
       </c>
-      <c r="H11" s="2">
+      <c r="J11" s="2">
         <v>8</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>25</v>
+      <c r="K11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>402</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2">
+        <v>26.7</v>
+      </c>
+      <c r="H12" s="2">
+        <v>16700</v>
+      </c>
+      <c r="I12" s="2">
+        <v>260</v>
+      </c>
+      <c r="J12" s="2">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>403</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="2">
-        <v>26.7</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2">
         <v>16700</v>
       </c>
-      <c r="G12" s="2">
-        <v>260</v>
-      </c>
-      <c r="H12" s="2">
-        <v>9</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="I13" s="2">
+        <v>250</v>
+      </c>
+      <c r="J13" s="2">
+        <v>10</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>404</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2">
-        <v>16700</v>
-      </c>
-      <c r="G13" s="2">
-        <v>250</v>
-      </c>
-      <c r="H13" s="2">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>31</v>
+      <c r="L13" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/Unit_Data.xlsx
+++ b/RawData/Unit_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427B29EC-9455-4033-9BB7-6FC4EC5D48E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F219AF-6F48-4091-8DF9-4156D4F62532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35250" yWindow="2310" windowWidth="20010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -47,9 +47,6 @@
     <t>모든지 열심히 합니다.</t>
   </si>
   <si>
-    <t>초보자.gif</t>
-  </si>
-  <si>
     <t>전사 1</t>
   </si>
   <si>
@@ -62,18 +59,12 @@
     <t>부족장입니다.</t>
   </si>
   <si>
-    <t>전사 2.gif</t>
-  </si>
-  <si>
     <t>전사 3</t>
   </si>
   <si>
     <t>조금 느리지만 힘이 쎈 족장입니다.</t>
   </si>
   <si>
-    <t>전사 3.gif</t>
-  </si>
-  <si>
     <t>궁수 1</t>
   </si>
   <si>
@@ -86,18 +77,12 @@
     <t>날쎈 궁수입니다.</t>
   </si>
   <si>
-    <t>궁수 2.gif</t>
-  </si>
-  <si>
     <t>궁수 3</t>
   </si>
   <si>
     <t>궁수 중엔 내가 제일 쎕니다.</t>
   </si>
   <si>
-    <t>궁수 3.gif</t>
-  </si>
-  <si>
     <t>마법사 1</t>
   </si>
   <si>
@@ -110,16 +95,10 @@
     <t>25년 동안 모솔입니다.</t>
   </si>
   <si>
-    <t>마법사 2.gif</t>
-  </si>
-  <si>
     <t>마법사 3</t>
   </si>
   <si>
     <t>30년 동안 모솔입니다.</t>
-  </si>
-  <si>
-    <t>마법사 3.gif</t>
   </si>
   <si>
     <r>
@@ -276,13 +255,14 @@
   </si>
   <si>
     <t>Archer0</t>
-  </si>
-  <si>
-    <t>Archer0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Human0</t>
+  </si>
+  <si>
+    <t>Mage0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -853,7 +833,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -872,16 +852,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -890,22 +870,22 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -917,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -938,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -953,10 +933,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
@@ -974,10 +954,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -988,10 +968,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
@@ -1009,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1023,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="G5" s="2">
         <v>27</v>
@@ -1044,10 +1024,10 @@
         <v>2</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1058,13 +1038,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="G6" s="2">
         <v>30</v>
@@ -1079,10 +1059,10 @@
         <v>3</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1093,13 +1073,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2">
         <v>31.6</v>
@@ -1114,10 +1094,10 @@
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1128,13 +1108,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2">
         <v>13.32</v>
@@ -1149,10 +1129,10 @@
         <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1163,13 +1143,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2">
         <v>14</v>
@@ -1184,10 +1164,10 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1198,13 +1178,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2">
         <v>15</v>
@@ -1219,10 +1199,10 @@
         <v>7</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1233,13 +1213,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2">
         <v>25.6</v>
@@ -1254,10 +1234,10 @@
         <v>8</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1268,13 +1248,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G12" s="2">
         <v>26.7</v>
@@ -1289,10 +1269,10 @@
         <v>9</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1303,13 +1283,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G13" s="2">
         <v>27</v>
@@ -1324,10 +1304,10 @@
         <v>10</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/Unit_Data.xlsx
+++ b/RawData/Unit_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F219AF-6F48-4091-8DF9-4156D4F62532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220988D6-5102-48D9-AFD7-85B55C32D7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35250" yWindow="2310" windowWidth="20010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,7 +833,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -921,7 +921,7 @@
         <v>40</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -957,7 +957,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -992,7 +992,7 @@
         <v>40</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1027,7 +1027,7 @@
         <v>42</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
         <v>42</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">

--- a/RawData/Unit_Data.xlsx
+++ b/RawData/Unit_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220988D6-5102-48D9-AFD7-85B55C32D7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F100990-C9CA-4613-B860-F32507D45BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35250" yWindow="2310" windowWidth="20010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -833,7 +833,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1117,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="2">
-        <v>13.32</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2">
         <v>16000</v>
@@ -1152,7 +1152,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2">
         <v>16000</v>
@@ -1187,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2">
         <v>16000</v>

--- a/RawData/Unit_Data.xlsx
+++ b/RawData/Unit_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F100990-C9CA-4613-B860-F32507D45BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B5D303-B5E3-4ED8-8267-D3063E77FB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35250" yWindow="2310" windowWidth="20010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -833,7 +833,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1027,7 +1027,7 @@
         <v>42</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
         <v>42</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>42</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
         <v>43</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1272,7 +1272,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1307,7 +1307,7 @@
         <v>43</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/RawData/Unit_Data.xlsx
+++ b/RawData/Unit_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B5D303-B5E3-4ED8-8267-D3063E77FB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98222505-2155-4356-A49D-2927672CD99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="1035" windowWidth="20010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -830,10 +830,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1310,6 +1310,11 @@
         <v>38</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/RawData/Unit_Data.xlsx
+++ b/RawData/Unit_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98222505-2155-4356-A49D-2927672CD99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7781654E-D822-4BE3-A751-D3A093DB60B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1035" windowWidth="20010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -262,6 +262,10 @@
   </si>
   <si>
     <t>Mage0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SellGold</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -830,10 +834,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -850,7 +854,7 @@
     <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -887,8 +891,11 @@
       <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2">
         <v>101</v>
@@ -923,8 +930,11 @@
       <c r="L2" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="M2" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>102</v>
@@ -959,8 +969,11 @@
       <c r="L3" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="M3" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>103</v>
       </c>
@@ -994,8 +1007,11 @@
       <c r="L4" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="M4" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>201</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="L5" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="M5" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>202</v>
       </c>
@@ -1064,8 +1083,11 @@
       <c r="L6" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="M6" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>203</v>
       </c>
@@ -1099,8 +1121,11 @@
       <c r="L7" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="M7" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>301</v>
       </c>
@@ -1117,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="2">
-        <v>20</v>
+        <v>13.32</v>
       </c>
       <c r="H8" s="2">
         <v>16000</v>
@@ -1134,8 +1159,11 @@
       <c r="L8" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="M8" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>302</v>
       </c>
@@ -1152,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H9" s="2">
         <v>16000</v>
@@ -1169,8 +1197,11 @@
       <c r="L9" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="M9" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>303</v>
       </c>
@@ -1187,7 +1218,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H10" s="2">
         <v>16000</v>
@@ -1204,8 +1235,11 @@
       <c r="L10" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="M10" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>401</v>
       </c>
@@ -1239,8 +1273,11 @@
       <c r="L11" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="M11" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>402</v>
       </c>
@@ -1274,8 +1311,11 @@
       <c r="L12" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="M12" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>403</v>
       </c>
@@ -1309,15 +1349,16 @@
       <c r="L13" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="M13" s="2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L14" s="3" t="s">
-        <v>38</v>
-      </c>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RawData/Unit_Data.xlsx
+++ b/RawData/Unit_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7781654E-D822-4BE3-A751-D3A093DB60B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C50796-7AB4-42DD-BF86-3C2DCA54F197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,55 +47,28 @@
     <t>모든지 열심히 합니다.</t>
   </si>
   <si>
-    <t>전사 1</t>
-  </si>
-  <si>
     <t>힘이 쎈 부족원입니다.</t>
   </si>
   <si>
-    <t>전사 2</t>
-  </si>
-  <si>
     <t>부족장입니다.</t>
   </si>
   <si>
-    <t>전사 3</t>
-  </si>
-  <si>
     <t>조금 느리지만 힘이 쎈 족장입니다.</t>
   </si>
   <si>
-    <t>궁수 1</t>
-  </si>
-  <si>
     <t>멀리 쏘는 건 자신 있습니다.</t>
   </si>
   <si>
-    <t>궁수 2</t>
-  </si>
-  <si>
     <t>날쎈 궁수입니다.</t>
   </si>
   <si>
-    <t>궁수 3</t>
-  </si>
-  <si>
     <t>궁수 중엔 내가 제일 쎕니다.</t>
   </si>
   <si>
-    <t>마법사 1</t>
-  </si>
-  <si>
     <t>20년 동안 모솔입니다.</t>
   </si>
   <si>
-    <t>마법사 2</t>
-  </si>
-  <si>
     <t>25년 동안 모솔입니다.</t>
-  </si>
-  <si>
-    <t>마법사 3</t>
   </si>
   <si>
     <t>30년 동안 모솔입니다.</t>
@@ -181,16 +154,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>초보자1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초보자2</t>
-  </si>
-  <si>
-    <t>초보자3</t>
-  </si>
-  <si>
     <r>
       <t>S</t>
     </r>
@@ -266,6 +229,45 @@
   </si>
   <si>
     <t>SellGold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야만전사</t>
+  </si>
+  <si>
+    <t>용기사</t>
+  </si>
+  <si>
+    <t>성기사</t>
+  </si>
+  <si>
+    <t>로빈후드</t>
+  </si>
+  <si>
+    <t>엘프</t>
+  </si>
+  <si>
+    <t>레골라스</t>
+  </si>
+  <si>
+    <t>견습마법사</t>
+  </si>
+  <si>
+    <t>화염법사</t>
+  </si>
+  <si>
+    <t>대마법사</t>
+  </si>
+  <si>
+    <t>진짜 초보자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범한 초보자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강해진 초보자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +839,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -845,7 +847,7 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.125" bestFit="1" customWidth="1"/>
@@ -856,16 +858,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -874,25 +876,25 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -904,10 +906,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -925,10 +927,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M2" s="2">
         <v>4</v>
@@ -943,10 +945,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>3</v>
@@ -964,10 +966,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M3" s="2">
         <v>10</v>
@@ -981,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
@@ -1002,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M4" s="2">
         <v>20</v>
@@ -1019,13 +1021,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="G5" s="2">
         <v>27</v>
@@ -1040,10 +1042,10 @@
         <v>2</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <v>4</v>
@@ -1057,13 +1059,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2">
         <v>30</v>
@@ -1078,10 +1080,10 @@
         <v>3</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2">
         <v>10</v>
@@ -1095,13 +1097,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2">
         <v>31.6</v>
@@ -1116,10 +1118,10 @@
         <v>4</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M7" s="2">
         <v>20</v>
@@ -1133,13 +1135,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2">
         <v>13.32</v>
@@ -1154,10 +1156,10 @@
         <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M8" s="2">
         <v>4</v>
@@ -1171,13 +1173,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2">
         <v>14</v>
@@ -1192,10 +1194,10 @@
         <v>6</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M9" s="2">
         <v>10</v>
@@ -1209,13 +1211,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2">
         <v>15</v>
@@ -1230,10 +1232,10 @@
         <v>7</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M10" s="2">
         <v>20</v>
@@ -1247,13 +1249,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2">
         <v>25.6</v>
@@ -1268,10 +1270,10 @@
         <v>8</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M11" s="2">
         <v>4</v>
@@ -1285,13 +1287,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2">
         <v>26.7</v>
@@ -1306,10 +1308,10 @@
         <v>9</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M12" s="2">
         <v>10</v>
@@ -1323,13 +1325,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2">
         <v>27</v>
@@ -1344,10 +1346,10 @@
         <v>10</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M13" s="2">
         <v>20</v>

--- a/RawData/Unit_Data.xlsx
+++ b/RawData/Unit_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C50796-7AB4-42DD-BF86-3C2DCA54F197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFACE968-FD25-4F5C-9177-51D3446E4A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="1380" windowWidth="20010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -839,7 +839,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1036,7 +1036,7 @@
         <v>17000</v>
       </c>
       <c r="I5" s="2">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
@@ -1074,7 +1074,7 @@
         <v>17000</v>
       </c>
       <c r="I6" s="2">
-        <v>160</v>
+        <v>270</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
@@ -1112,7 +1112,7 @@
         <v>17000</v>
       </c>
       <c r="I7" s="2">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="J7" s="2">
         <v>4</v>
@@ -1150,7 +1150,7 @@
         <v>16000</v>
       </c>
       <c r="I8" s="2">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="J8" s="2">
         <v>5</v>
@@ -1188,7 +1188,7 @@
         <v>16000</v>
       </c>
       <c r="I9" s="2">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="J9" s="2">
         <v>6</v>
@@ -1226,7 +1226,7 @@
         <v>16000</v>
       </c>
       <c r="I10" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J10" s="2">
         <v>7</v>
@@ -1264,7 +1264,7 @@
         <v>16700</v>
       </c>
       <c r="I11" s="2">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="J11" s="2">
         <v>8</v>
@@ -1302,7 +1302,7 @@
         <v>16700</v>
       </c>
       <c r="I12" s="2">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="J12" s="2">
         <v>9</v>
@@ -1340,7 +1340,7 @@
         <v>16700</v>
       </c>
       <c r="I13" s="2">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="J13" s="2">
         <v>10</v>

--- a/RawData/Unit_Data.xlsx
+++ b/RawData/Unit_Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grays\Desktop\Project\Unity\OIlNamProject\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUNGYU\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFACE968-FD25-4F5C-9177-51D3446E4A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="1380" windowWidth="20010" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15225" windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,7 +273,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,7 +512,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -522,7 +521,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -834,12 +833,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1030,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H5" s="2">
         <v>17000</v>
@@ -1068,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="2">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="H6" s="2">
         <v>17000</v>
@@ -1106,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="2">
-        <v>31.6</v>
+        <v>840</v>
       </c>
       <c r="H7" s="2">
         <v>17000</v>
@@ -1144,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="2">
-        <v>13.32</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2">
         <v>16000</v>
@@ -1182,7 +1181,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="2">
-        <v>14</v>
+        <v>59.5</v>
       </c>
       <c r="H9" s="2">
         <v>16000</v>
@@ -1220,7 +1219,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="2">
-        <v>15</v>
+        <v>446.2</v>
       </c>
       <c r="H10" s="2">
         <v>16000</v>
@@ -1258,7 +1257,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2">
-        <v>25.6</v>
+        <v>27.6</v>
       </c>
       <c r="H11" s="2">
         <v>16700</v>
@@ -1296,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="2">
-        <v>26.7</v>
+        <v>96.6</v>
       </c>
       <c r="H12" s="2">
         <v>16700</v>
@@ -1334,7 +1333,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="2">
-        <v>27</v>
+        <v>724.5</v>
       </c>
       <c r="H13" s="2">
         <v>16700</v>
